--- a/biology/Zoologie/Gerbillus/Gerbillus.xlsx
+++ b/biology/Zoologie/Gerbillus/Gerbillus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gerbillus  est un genre qui regroupe des rongeurs de la famille des muridés. Il comprend de nombreuses espèces de gerbilles localisées dans les zones arides et désertiques d'Afrique et du Proche et Moyen-Orient.
 </t>
@@ -511,52 +523,54 @@
           <t>Noms vernaculaires et noms scientifiques correspondants</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Liste alphabétique des noms vernaculaires attestés en français, correspondant à des Gerbillus.
 Note : certaines espèces ont plusieurs noms.
 Les classifications évoluant encore, certains noms scientifiques ont peut-être un autre synonyme valide. Par exemple certaines espèces ont été déplacées dans le genre Dipodillus.
-Gerbille de l'Agag - Gerbillus agag[1]
-Gerbille d'Allenby - voir Gerbille d'Anderson[1]
-Gerbille d'Anderson - Gerbillus andersoni[1]
-Gerbille du Baluchistan - Gerbillus nanus[1]
-Gerbille charmante - Gerbillus amoenus[1]
-Gerbille champêtre - Gerbillus campestris[1],[2],[3]  (syn. Dipodillus campestris)
-Gerbille des champs - voir Gerbille champêtre[1]
-Gerbille de Cheesman - Gerbillus cheesmani[1]
-Gerbille d'Éthiopie - Gerbillus pulvinatus[1]
-Gerbille de Harrison - Gerbillus mesopotamiae[1]
-Gerbille de Henley - Gerbillus henleyi[1]
-Gerbille hespérine - Gerbillus hesperinus[1],[3]
-Gerbille de Kaiser - voir Petite gerbille à queue courte[1]
-Gerbille de Lataste - voir Gerbille à pieds velus[1]
-Gerbille de Libye - Gerbillus tarabuli[3]
-Gerbille de Mackilligin - Gerbillus mackillingini[1]  (syn. Dipodillus mackillingini)
-Gerbille naine - voir Gerbille du Baluchistan[1],[2],[3]
-Gerbille du Niger - Gerbillus nigeriae[1]
-Gerbille occidentale - Gerbillus occiduus[1],[3]
-Gerbille pâle - voir Gerbille du Pallid[1]
+Gerbille de l'Agag - Gerbillus agag
+Gerbille d'Allenby - voir Gerbille d'Anderson
+Gerbille d'Anderson - Gerbillus andersoni
+Gerbille du Baluchistan - Gerbillus nanus
+Gerbille charmante - Gerbillus amoenus
+Gerbille champêtre - Gerbillus campestris  (syn. Dipodillus campestris)
+Gerbille des champs - voir Gerbille champêtre
+Gerbille de Cheesman - Gerbillus cheesmani
+Gerbille d'Éthiopie - Gerbillus pulvinatus
+Gerbille de Harrison - Gerbillus mesopotamiae
+Gerbille de Henley - Gerbillus henleyi
+Gerbille hespérine - Gerbillus hesperinus,
+Gerbille de Kaiser - voir Petite gerbille à queue courte
+Gerbille de Lataste - voir Gerbille à pieds velus
+Gerbille de Libye - Gerbillus tarabuli
+Gerbille de Mackilligin - Gerbillus mackillingini  (syn. Dipodillus mackillingini)
+Gerbille naine - voir Gerbille du Baluchistan
+Gerbille du Niger - Gerbillus nigeriae
+Gerbille occidentale - Gerbillus occiduus,
+Gerbille pâle - voir Gerbille du Pallid
 Gerbille du Pallid - Gerbillus perpallidus
-Gerbille à pattes poilues - voir Gerbille à pieds velus[1]
-Gerbille à pieds velus - Gerbillus latastei[1]
-Gerbille pygmée - voir Gerbille de Henley[2],[3]
-Gerbille des rochers - voir Gerbille champêtre[1]
-Gerbille de Riggenbach - Gerbillus riggenbachi[3]
-Gerbille de Rosalinda - Gerbillus rosalinda[1]
-Gerbille de Simon - voir Petite gerbille à queue courte[1]
-Gerbille du Souss - Gerbillus hoogstraali[1],[3]
-Gerbille velue d'Inde - Gerbillus gleadowi[1]
-Gerbille de Wagner - Gerbillus dasyurus[1] (syn. Dipodillus dasyurus)
-Grande gerbille - voir Grande gerbille d'Égypte[1]
-Grande gerbille d'Aden - Gerbillus poecilops[1]
-Grande gerbille d'Égypte - Gerbillus pyramidum[2]
-Grande gerbille à queue courte - Gerbillus maghrebi[1],[3] (syn. Dipodillus maghrebi)
-Kigolo - Gerbillus pusillus[1]
-Petite gerbille - voir Petite gerbille du sable[1]
-Petite gerbille d'Égypte - voir Petite gerbille du sable[1]
-Petite gerbille à queue courte - Gerbillus simoni[2],[3] (syn. Dipodillus simoni)
-Petite gerbille du sable ou Petite gerbille de sable - Gerbillus gerbillus[1],[2],[3]
-Petite gerbille du Sahara - voir Petite gerbille du sable[1]</t>
+Gerbille à pattes poilues - voir Gerbille à pieds velus
+Gerbille à pieds velus - Gerbillus latastei
+Gerbille pygmée - voir Gerbille de Henley,
+Gerbille des rochers - voir Gerbille champêtre
+Gerbille de Riggenbach - Gerbillus riggenbachi
+Gerbille de Rosalinda - Gerbillus rosalinda
+Gerbille de Simon - voir Petite gerbille à queue courte
+Gerbille du Souss - Gerbillus hoogstraali,
+Gerbille velue d'Inde - Gerbillus gleadowi
+Gerbille de Wagner - Gerbillus dasyurus (syn. Dipodillus dasyurus)
+Grande gerbille - voir Grande gerbille d'Égypte
+Grande gerbille d'Aden - Gerbillus poecilops
+Grande gerbille d'Égypte - Gerbillus pyramidum
+Grande gerbille à queue courte - Gerbillus maghrebi, (syn. Dipodillus maghrebi)
+Kigolo - Gerbillus pusillus
+Petite gerbille - voir Petite gerbille du sable
+Petite gerbille d'Égypte - voir Petite gerbille du sable
+Petite gerbille à queue courte - Gerbillus simoni, (syn. Dipodillus simoni)
+Petite gerbille du sable ou Petite gerbille de sable - Gerbillus gerbillus
+Petite gerbille du Sahara - voir Petite gerbille du sable</t>
         </is>
       </c>
     </row>
@@ -584,13 +598,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Certains auteurs distinguent des sous-genres.
-Liste des sous-genres
-Selon Mammal Species of the World (version 3, 2005)  (26 nov. 2010)[4]
-Gerbillus (Gerbillus) Desmarest, 1804
-Gerbillus (Hendecapleura) Lataste, 1894</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains auteurs distinguent des sous-genres.
+</t>
         </is>
       </c>
     </row>
@@ -615,12 +628,52 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des sous-genres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (26 nov. 2010)
+Gerbillus (Gerbillus) Desmarest, 1804
+Gerbillus (Hendecapleura) Lataste, 1894</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gerbillus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gerbillus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (26 nov. 2010)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (26 nov. 2010) :
 Gerbillus gerbillus
 Gerbillus henleyi
 Gerbillus latastei
@@ -629,7 +682,7 @@
 Gerbillus perpallidus
 Gerbillus pyramidum
 Gerbillus tarabuli
-Selon Mammal Species of the World (version 3, 2005)  (26 nov. 2010)[4] :
+Selon Mammal Species of the World (version 3, 2005)  (26 nov. 2010) :
 sous-genre Gerbillus (Gerbillus)
 Gerbillus acticola
 Gerbillus agag
@@ -670,7 +723,7 @@
 Gerbillus watersi
 Gerbillus burtoni
 Gerbillus mauritaniae
-Selon ITIS      (26 nov. 2010)[6] :
+Selon ITIS      (26 nov. 2010) :
 Gerbillus acticola Thomas, 1918
 Gerbillus agag Thomas, 1903
 Gerbillus allenbyi Thomas, 1918
